--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,31 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25412"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\BHPSbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/hydgn/BHPSbP/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="198" documentId="11_7C61B08896F1F1317A76AA750F197DA39E0C7528" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB3945CB-11E0-4344-86D6-90BFE9D9C683}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BHPSbP" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId2"/>
+    <sheet name="BHPSbP" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>BHPSbP BAU Hydrogen Production Shares by Pathway</t>
   </si>
@@ -33,7 +45,61 @@
     <t>Sources:</t>
   </si>
   <si>
+    <t>Canada's Energy Future 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Policies </t>
+  </si>
+  <si>
+    <t>Hydrogen Production</t>
+  </si>
+  <si>
+    <t>https://apps.cer-rec.gc.ca/ftrppndc/dflt.aspx?GoCTemplateCulture=en-CA</t>
+  </si>
+  <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>We assume today's shares are constant in the BAU case.</t>
+  </si>
+  <si>
+    <t>Select Report Version: Canada’s Energy Future 2021</t>
+  </si>
+  <si>
+    <t>Select Appendices: Hydrogen Production</t>
+  </si>
+  <si>
+    <t>Select Case: Current Policies</t>
+  </si>
+  <si>
+    <t>Select Unit: Mega tonnes</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>Natural gas with CCS</t>
+  </si>
+  <si>
+    <t>Grid Electrolysis</t>
+  </si>
+  <si>
+    <t>Renewable Electrolysis</t>
+  </si>
+  <si>
+    <t>SHARE</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Production Share (dimensionless)</t>
   </si>
   <si>
     <t>electrolysis</t>
@@ -48,50 +114,14 @@
     <t>biomass gasification</t>
   </si>
   <si>
-    <t>U.S. Department of Energy Fuel Cell Technologies Office</t>
-  </si>
-  <si>
-    <t>Hydrogen Production Processes</t>
-  </si>
-  <si>
-    <t>https://www.energy.gov/eere/fuelcells/hydrogen-production-processes</t>
-  </si>
-  <si>
-    <t>See sub-pages for each process, particularly "natural gas reforming"</t>
-  </si>
-  <si>
-    <t>For international (global) statistics, see:</t>
-  </si>
-  <si>
-    <t>International Energy Agency</t>
-  </si>
-  <si>
-    <t>Hydrogen Production</t>
-  </si>
-  <si>
-    <t>https://www.iea.org/topics/hydrogen/production/</t>
-  </si>
-  <si>
-    <t>coal gasification (mostly located in China)</t>
-  </si>
-  <si>
-    <t>International values:</t>
-  </si>
-  <si>
-    <t>We assume today's shares are constant in the BAU case.</t>
-  </si>
-  <si>
     <t>thermochemical water splitting</t>
-  </si>
-  <si>
-    <t>Production Share (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +145,68 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor rgb="FF4F81BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -132,12 +214,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF4F81BD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF4F81BD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -147,6 +297,27 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -427,663 +598,1911 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.73046875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="6"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="3">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>0.02</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>0.76</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <f>0.22</f>
-        <v>0.22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B23:C23"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
-    <hyperlink ref="B19" r:id="rId2"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{D30BFE11-697B-4978-AAD5-931F78DDF9B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55245CA-1C88-464C-A4E9-145C82B5DA78}">
+  <dimension ref="A1:AU14"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AH15" sqref="AH15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="21">
+      <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+    </row>
+    <row r="2" spans="1:47" ht="21">
+      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+    </row>
+    <row r="3" spans="1:47" ht="21">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+    </row>
+    <row r="4" spans="1:47" ht="21">
+      <c r="A4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+    </row>
+    <row r="7" spans="1:47" ht="18.75">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="A8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="12">
+        <v>2005</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2006</v>
+      </c>
+      <c r="D8" s="12">
+        <v>2007</v>
+      </c>
+      <c r="E8" s="12">
+        <v>2008</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2009</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2010</v>
+      </c>
+      <c r="H8" s="12">
+        <v>2011</v>
+      </c>
+      <c r="I8" s="12">
+        <v>2012</v>
+      </c>
+      <c r="J8" s="12">
+        <v>2013</v>
+      </c>
+      <c r="K8" s="12">
+        <v>2014</v>
+      </c>
+      <c r="L8" s="12">
+        <v>2015</v>
+      </c>
+      <c r="M8" s="12">
+        <v>2016</v>
+      </c>
+      <c r="N8" s="12">
+        <v>2017</v>
+      </c>
+      <c r="O8" s="12">
+        <v>2018</v>
+      </c>
+      <c r="P8" s="12">
+        <v>2019</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>2020</v>
+      </c>
+      <c r="R8" s="12">
+        <v>2021</v>
+      </c>
+      <c r="S8" s="12">
+        <v>2022</v>
+      </c>
+      <c r="T8" s="12">
+        <v>2023</v>
+      </c>
+      <c r="U8" s="12">
+        <v>2024</v>
+      </c>
+      <c r="V8" s="12">
+        <v>2025</v>
+      </c>
+      <c r="W8" s="12">
+        <v>2026</v>
+      </c>
+      <c r="X8" s="12">
+        <v>2027</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>2028</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>2029</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>2030</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>2031</v>
+      </c>
+      <c r="AC8" s="12">
+        <v>2032</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>2033</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>2034</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>2035</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>2036</v>
+      </c>
+      <c r="AH8" s="12">
+        <v>2037</v>
+      </c>
+      <c r="AI8" s="12">
+        <v>2038</v>
+      </c>
+      <c r="AJ8" s="12">
+        <v>2039</v>
+      </c>
+      <c r="AK8" s="12">
+        <v>2040</v>
+      </c>
+      <c r="AL8" s="12">
+        <v>2041</v>
+      </c>
+      <c r="AM8" s="12">
+        <v>2042</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>2043</v>
+      </c>
+      <c r="AO8" s="12">
+        <v>2044</v>
+      </c>
+      <c r="AP8" s="12">
+        <v>2045</v>
+      </c>
+      <c r="AQ8" s="12">
+        <v>2046</v>
+      </c>
+      <c r="AR8" s="12">
+        <v>2047</v>
+      </c>
+      <c r="AS8" s="12">
+        <v>2048</v>
+      </c>
+      <c r="AT8" s="12">
+        <v>2049</v>
+      </c>
+      <c r="AU8" s="13">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47">
+      <c r="A9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="15">
+        <v>0</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>0</v>
+      </c>
+      <c r="R9" s="15">
+        <v>0</v>
+      </c>
+      <c r="S9" s="15">
+        <v>0</v>
+      </c>
+      <c r="T9" s="15">
+        <v>0</v>
+      </c>
+      <c r="U9" s="15">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
+        <v>0</v>
+      </c>
+      <c r="W9" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="X9" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>0.08</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>0.15</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="AC9" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>0.36</v>
+      </c>
+      <c r="AE9" s="15">
+        <v>0.38</v>
+      </c>
+      <c r="AF9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AG9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AH9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AI9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AJ9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AK9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AL9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AM9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AN9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AO9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AP9" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="AQ9" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="AR9" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="AS9" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="AT9" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="AU9" s="16">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="A10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="15">
+        <v>0</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0</v>
+      </c>
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="15">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="15">
+        <v>0</v>
+      </c>
+      <c r="M10" s="15">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15">
+        <v>0</v>
+      </c>
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15">
+        <v>0</v>
+      </c>
+      <c r="U10" s="15">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
+        <v>0</v>
+      </c>
+      <c r="W10" s="15">
+        <v>0</v>
+      </c>
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AH10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AI10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AK10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AL10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AM10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AN10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AP10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AQ10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AR10" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="AS10" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="AT10" s="15">
+        <v>0.03</v>
+      </c>
+      <c r="AU10" s="16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="A11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <v>0</v>
+      </c>
+      <c r="X11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AA11" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="AB11" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="AC11" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="AD11" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="AE11" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="AF11" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="AG11" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="AH11" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AI11" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AN11" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AO11" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AP11" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AQ11" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="AR11" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="AS11" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AT11" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AU11" s="19">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ref="W13:AU13" si="0">W9/SUM(W9:W11)</f>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Z13">
+        <f>Z9/SUM(Z9:Z11)</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>0.9375</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="0"/>
+        <v>0.88571428571428579</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190466</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="0"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="0"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="0"/>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="0"/>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="0"/>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="0"/>
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="0"/>
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="0"/>
+        <v>0.8076923076923076</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="0"/>
+        <v>0.8076923076923076</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="0"/>
+        <v>0.79629629629629639</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47">
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f>SUM(Z10:Z11)/SUM(Z9:Z11)</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="Z14:AT14" si="1">SUM(AA10:AA11)/SUM(AA9:AA11)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="1"/>
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="1"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="1"/>
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="1"/>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="1"/>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="1"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="1"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="AL14">
+        <f t="shared" si="1"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="1"/>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" si="1"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="1"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="1"/>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="1"/>
+        <v>0.16326530612244899</v>
+      </c>
+      <c r="AR14">
+        <f t="shared" si="1"/>
+        <v>0.16326530612244899</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" si="1"/>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AU14">
+        <f>SUM(AU10:AU11)/SUM(AU9:AU11)</f>
+        <v>0.20370370370370372</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.1328125" customWidth="1"/>
+    <col min="1" max="1" width="51.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2">
-        <v>2017</v>
+        <f>2018</f>
+        <v>2018</v>
       </c>
       <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1" s="2">
+        <f>B1+1</f>
         <v>2019</v>
       </c>
+      <c r="D1">
+        <f t="shared" ref="D1:AH1" si="0">C1+1</f>
+        <v>2020</v>
+      </c>
       <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1" s="2">
+        <f t="shared" si="0"/>
         <v>2021</v>
       </c>
+      <c r="F1">
+        <f t="shared" si="0"/>
+        <v>2022</v>
+      </c>
       <c r="G1">
-        <v>2022</v>
-      </c>
-      <c r="H1" s="2">
+        <f t="shared" si="0"/>
         <v>2023</v>
       </c>
+      <c r="H1">
+        <f t="shared" si="0"/>
+        <v>2024</v>
+      </c>
       <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1" s="2">
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
+      <c r="J1">
+        <f t="shared" si="0"/>
+        <v>2026</v>
+      </c>
       <c r="K1">
-        <v>2026</v>
-      </c>
-      <c r="L1" s="2">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
+      <c r="L1">
+        <f t="shared" si="0"/>
+        <v>2028</v>
+      </c>
       <c r="M1">
-        <v>2028</v>
-      </c>
-      <c r="N1" s="2">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
+      <c r="N1">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
       <c r="O1">
-        <v>2030</v>
-      </c>
-      <c r="P1" s="2">
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
+      <c r="P1">
+        <f t="shared" si="0"/>
+        <v>2032</v>
+      </c>
       <c r="Q1">
-        <v>2032</v>
-      </c>
-      <c r="R1" s="2">
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
+      <c r="R1">
+        <f t="shared" si="0"/>
+        <v>2034</v>
+      </c>
       <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1" s="2">
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
+      <c r="T1">
+        <f t="shared" si="0"/>
+        <v>2036</v>
+      </c>
       <c r="U1">
-        <v>2036</v>
-      </c>
-      <c r="V1" s="2">
+        <f t="shared" si="0"/>
         <v>2037</v>
       </c>
+      <c r="V1">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
       <c r="W1">
-        <v>2038</v>
-      </c>
-      <c r="X1" s="2">
+        <f t="shared" si="0"/>
         <v>2039</v>
       </c>
+      <c r="X1">
+        <f t="shared" si="0"/>
+        <v>2040</v>
+      </c>
       <c r="Y1">
-        <v>2040</v>
-      </c>
-      <c r="Z1" s="2">
+        <f t="shared" si="0"/>
         <v>2041</v>
       </c>
+      <c r="Z1">
+        <f t="shared" si="0"/>
+        <v>2042</v>
+      </c>
       <c r="AA1">
-        <v>2042</v>
-      </c>
-      <c r="AB1" s="2">
+        <f t="shared" si="0"/>
         <v>2043</v>
       </c>
+      <c r="AB1">
+        <f t="shared" si="0"/>
+        <v>2044</v>
+      </c>
       <c r="AC1">
-        <v>2044</v>
-      </c>
-      <c r="AD1" s="2">
+        <f t="shared" si="0"/>
         <v>2045</v>
       </c>
+      <c r="AD1">
+        <f t="shared" si="0"/>
+        <v>2046</v>
+      </c>
       <c r="AE1">
-        <v>2046</v>
-      </c>
-      <c r="AF1" s="2">
+        <f t="shared" si="0"/>
         <v>2047</v>
       </c>
+      <c r="AF1">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
       <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1" s="2">
+        <f t="shared" si="0"/>
         <v>2049</v>
       </c>
-      <c r="AI1">
+      <c r="AH1">
+        <f t="shared" si="0"/>
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0.05</v>
-      </c>
-      <c r="C2">
-        <f>$B2</f>
-        <v>0.05</v>
-      </c>
-      <c r="D2">
-        <f t="shared" ref="D2:AI6" si="0">$B2</f>
-        <v>0.05</v>
-      </c>
-      <c r="E2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="K2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="L2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="M2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="N2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="O2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="R2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="S2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="T2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AC2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AD2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AE2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AF2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AG2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AH2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-      <c r="AI2">
-        <f t="shared" si="0"/>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.95</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:R6" si="1">$B3</f>
-        <v>0.95</v>
-      </c>
-      <c r="D3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="E3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="F3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="I3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="K3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="L3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="M3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="N3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="O3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="P3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="R3">
-        <f t="shared" si="1"/>
-        <v>0.95</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="V3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="X3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AE3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AF3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AG3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AH3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-      <c r="AI3">
-        <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" s="20" customFormat="1">
+      <c r="A2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="20">
+        <v>0</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <v>0</v>
+      </c>
+      <c r="J2" s="8">
+        <f>Data!W14</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <f>Data!X14</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
+        <f>Data!Y14</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="20">
+        <f>Data!Z14</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="N2" s="20">
+        <f>Data!AA14</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O2" s="20">
+        <f>Data!AB14</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="P2" s="20">
+        <f>Data!AC14</f>
+        <v>0.1142857142857143</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>Data!AD14</f>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="R2" s="20">
+        <f>Data!AE14</f>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="S2" s="20">
+        <f>Data!AF14</f>
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="T2" s="20">
+        <f>Data!AG14</f>
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="U2" s="20">
+        <f>Data!AH14</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="V2" s="20">
+        <f>Data!AI14</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="W2" s="20">
+        <f>Data!AJ14</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="X2" s="20">
+        <f>Data!AK14</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="Y2" s="20">
+        <f>Data!AL14</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="Z2" s="20">
+        <f>Data!AM14</f>
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="AA2" s="20">
+        <f>Data!AN14</f>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="AB2" s="20">
+        <f>Data!AO14</f>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="AC2" s="20">
+        <f>Data!AP14</f>
+        <v>0.14893617021276595</v>
+      </c>
+      <c r="AD2" s="20">
+        <f>Data!AQ14</f>
+        <v>0.16326530612244899</v>
+      </c>
+      <c r="AE2" s="20">
+        <f>Data!AR14</f>
+        <v>0.16326530612244899</v>
+      </c>
+      <c r="AF2" s="20">
+        <f>Data!AS14</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AG2" s="20">
+        <f>Data!AT14</f>
+        <v>0.19230769230769232</v>
+      </c>
+      <c r="AH2" s="20">
+        <f>Data!AU14</f>
+        <v>0.20370370370370372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="20" customFormat="1">
+      <c r="A3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="20">
+        <v>1</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20">
+        <v>1</v>
+      </c>
+      <c r="J3" s="8">
+        <f>Data!W13</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="20">
+        <f>Data!X13</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="20">
+        <f>Data!Y13</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="20">
+        <f>Data!Z13</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="N3" s="20">
+        <f>Data!AA13</f>
+        <v>0.9375</v>
+      </c>
+      <c r="O3" s="20">
+        <f>Data!AB13</f>
+        <v>0.91666666666666674</v>
+      </c>
+      <c r="P3" s="20">
+        <f>Data!AC13</f>
+        <v>0.88571428571428579</v>
+      </c>
+      <c r="Q3" s="20">
+        <f>Data!AD13</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="R3" s="20">
+        <f>Data!AE13</f>
+        <v>0.90476190476190466</v>
+      </c>
+      <c r="S3" s="20">
+        <f>Data!AF13</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="T3" s="20">
+        <f>Data!AG13</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="U3" s="20">
+        <f>Data!AH13</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="V3" s="20">
+        <f>Data!AI13</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="W3" s="20">
+        <f>Data!AJ13</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="X3" s="20">
+        <f>Data!AK13</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="Y3" s="20">
+        <f>Data!AL13</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="Z3" s="20">
+        <f>Data!AM13</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="AA3" s="20">
+        <f>Data!AN13</f>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="AB3" s="20">
+        <f>Data!AO13</f>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="AC3" s="20">
+        <f>Data!AP13</f>
+        <v>0.85106382978723405</v>
+      </c>
+      <c r="AD3" s="20">
+        <f>Data!AQ13</f>
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="AE3" s="20">
+        <f>Data!AR13</f>
+        <v>0.83673469387755095</v>
+      </c>
+      <c r="AF3" s="20">
+        <f>Data!AS13</f>
+        <v>0.8076923076923076</v>
+      </c>
+      <c r="AG3" s="20">
+        <f>Data!AT13</f>
+        <v>0.8076923076923076</v>
+      </c>
+      <c r="AH3" s="20">
+        <f>Data!AU13</f>
+        <v>0.79629629629629639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C4:L6" si="1">$B4</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M4:V6" si="2">$B4</f>
         <v>0</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="W4:AH6" si="3">$B4</f>
         <v>0</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1093,137 +2512,133 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1233,135 +2648,432 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB47A61B-0735-43FA-9AB9-EAFF19CA4BBA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F19F8739-CDB5-4E1B-BE0C-53A95B84B7B1}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB36C5D1-0041-4DF3-AD36-BD4D9927BB12}"/>
 </file>
--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25930"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2778,6 +2779,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -3037,37 +3067,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB47A61B-0735-43FA-9AB9-EAFF19CA4BBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB36C5D1-0041-4DF3-AD36-BD4D9927BB12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3075,5 +3076,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB36C5D1-0041-4DF3-AD36-BD4D9927BB12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB47A61B-0735-43FA-9AB9-EAFF19CA4BBA}"/>
 </file>
--- a/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
+++ b/InputData/hydgn/BHPSbP/BAU Hydrogen Production Shr by Pathway.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -2779,6 +2779,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
@@ -2798,18 +2807,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -2835,6 +2835,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2935,6 +2936,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3068,13 +3074,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F19F8739-CDB5-4E1B-BE0C-53A95B84B7B1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB36C5D1-0041-4DF3-AD36-BD4D9927BB12}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F19F8739-CDB5-4E1B-BE0C-53A95B84B7B1}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB47A61B-0735-43FA-9AB9-EAFF19CA4BBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D2FF429-049B-4A82-A069-5630AB5EA33D}"/>
 </file>